--- a/links.xlsx
+++ b/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\git\autotests-in-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BF6DB5-AC1B-47A6-BD39-BACB1297CBF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22836F4F-2D49-4AB4-9653-2A09A86CB3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CD10E291-17B3-4581-B11A-04B5A1E85827}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>https://selenium-python.readthedocs.io/api.html</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>https://devhints.io/xpath</t>
+  </si>
+  <si>
+    <t>https://www.selenium.dev/selenium/docs/api/py/webdriver_support/selenium.webdriver.support.expected_conditions.html?highlight=expected</t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3FD05E-7F5D-461A-9EF2-0FD0278105B5}">
-  <dimension ref="B1:B4"/>
+  <dimension ref="B1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,12 +438,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{18E6C4E4-7097-42EC-A7D1-3ABD22228AD7}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{A2306CA8-69DF-43D4-990A-DEA9DB448FC7}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{1A25BDA4-CF38-472A-B92E-03826EA038A3}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{D0B89C72-28C1-495E-87B6-33D7048FE4C8}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{97A7A931-91C3-4197-A53E-26AC8BDEE64E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
